--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>temp</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>temp</t>
+          <t>feels_like</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>feels_like</t>
+          <t>pressure</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>pressure</t>
+          <t>humidity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>humidity</t>
+          <t>wind_speed</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>wind_speed</t>
+          <t>place</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>place</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>timestamp</t>
         </is>
@@ -477,255 +472,82 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>18.42</v>
       </c>
       <c r="B2" t="n">
-        <v>18.45</v>
+        <v>18.54</v>
       </c>
       <c r="C2" t="n">
-        <v>18.57</v>
+        <v>1011</v>
       </c>
       <c r="D2" t="n">
-        <v>1010</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>85</v>
-      </c>
-      <c r="F2" t="n">
         <v>3.09</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lisbon</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>19:33:18 29/10/2025</t>
+          <t>20:02:38 29/10/2025</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="n">
+        <v>18.42</v>
+      </c>
       <c r="B3" t="n">
-        <v>18.45</v>
+        <v>18.54</v>
       </c>
       <c r="C3" t="n">
-        <v>18.57</v>
+        <v>1011</v>
       </c>
       <c r="D3" t="n">
-        <v>1010</v>
+        <v>85</v>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
-      </c>
-      <c r="F3" t="n">
         <v>3.09</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lisbon</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>19:40:53 29/10/2025</t>
+          <t>20:02:49 29/10/2025</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="n">
+        <v>18.42</v>
+      </c>
       <c r="B4" t="n">
-        <v>18.42</v>
+        <v>18.54</v>
       </c>
       <c r="C4" t="n">
-        <v>18.54</v>
+        <v>1011</v>
       </c>
       <c r="D4" t="n">
-        <v>1011</v>
+        <v>85</v>
       </c>
       <c r="E4" t="n">
-        <v>85</v>
-      </c>
-      <c r="F4" t="n">
         <v>3.09</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lisbon</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>19:47:27 29/10/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="C5" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1011</v>
-      </c>
-      <c r="E5" t="n">
-        <v>85</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>19:47:46 29/10/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="C6" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1011</v>
-      </c>
-      <c r="E6" t="n">
-        <v>85</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>19:47:57 29/10/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="C7" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1011</v>
-      </c>
-      <c r="E7" t="n">
-        <v>85</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>19:48:07 29/10/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1011</v>
-      </c>
-      <c r="E8" t="n">
-        <v>85</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>19:50:31 29/10/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="C9" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1011</v>
-      </c>
-      <c r="E9" t="n">
-        <v>85</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>19:50:41 29/10/2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="C10" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1011</v>
-      </c>
-      <c r="E10" t="n">
-        <v>85</v>
-      </c>
-      <c r="F10" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Lisbon</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>19:50:51 29/10/2025</t>
+          <t>20:02:59 29/10/2025</t>
         </is>
       </c>
     </row>

--- a/pogoda.xlsx
+++ b/pogoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,6 +551,411 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D5" t="n">
+        <v>70</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>17:29:57 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D6" t="n">
+        <v>70</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>17:30:08 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="B7" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>17:30:18 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D8" t="n">
+        <v>70</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>17:30:28 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="B9" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D9" t="n">
+        <v>70</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>17:30:56 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="B10" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D10" t="n">
+        <v>70</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>17:31:07 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="B11" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D11" t="n">
+        <v>70</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>17:31:17 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="B12" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D12" t="n">
+        <v>70</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>17:32:32 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D13" t="n">
+        <v>70</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>17:32:43 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D14" t="n">
+        <v>70</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>17:36:20 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D15" t="n">
+        <v>70</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>17:36:30 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D16" t="n">
+        <v>71</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>17:40:50 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B17" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D17" t="n">
+        <v>71</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>17:41:00 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D18" t="n">
+        <v>71</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>17:41:11 15/11/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17.93</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1008</v>
+      </c>
+      <c r="D19" t="n">
+        <v>71</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Lisbon</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>17:41:21 15/11/2025</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
